--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trabajo\RPA\Modulos\FrameworkExcel\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Beeckerco\Documents\UiPath\FreFramework\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19AD66B7-CF44-4F38-970B-4FD763368C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A09E510-78C8-4584-A1C1-8431F0013002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="8235" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="84">
   <si>
     <t>Name</t>
   </si>
@@ -264,13 +264,25 @@
   </si>
   <si>
     <t>El portal web esta caido o no abrió correctamente</t>
+  </si>
+  <si>
+    <t>ACME_URL</t>
+  </si>
+  <si>
+    <t>ACME_Credential</t>
+  </si>
+  <si>
+    <t>Credentials for login in ACME webpage</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -303,6 +315,12 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -353,10 +371,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -373,6 +392,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -389,7 +409,8 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -406,7 +427,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -704,11 +725,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z992"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="43.5703125" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
@@ -751,53 +772,60 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
     </row>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="19" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
@@ -1780,8 +1808,11 @@
     <mergeCell ref="A20:C20"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="B14" r:id="rId1" xr:uid="{8AFAACD8-7AC2-4AFE-8D4B-A62E2FBC99B5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1793,7 +1824,7 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" style="6" customWidth="1"/>
     <col min="2" max="2" width="50.140625" style="6" bestFit="1" customWidth="1"/>
@@ -3063,7 +3094,7 @@
       <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
@@ -4120,12 +4151,12 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="30.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
@@ -4183,7 +4214,20 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
@@ -5190,11 +5234,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F00343-AE86-4241-A31F-BD0FCFF2FE6C}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.85546875" customWidth="1"/>
     <col min="2" max="2" width="29.42578125" customWidth="1"/>
